--- a/download/Coyote/Available Loads Export.xlsx
+++ b/download/Coyote/Available Loads Export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Load #</t>
   </si>
@@ -68,7 +68,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>San Francisco</t>
+    <t>Tracy</t>
   </si>
   <si>
     <t>CA</t>
@@ -77,148 +77,259 @@
     <t>US</t>
   </si>
   <si>
-    <t>05/07/2020 @ [ 10:00 ]</t>
-  </si>
-  <si>
-    <t>Woodland</t>
+    <t>05/21/2020 @ [ 17:00 ]</t>
+  </si>
+  <si>
+    <t>Grandview</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>05/08/2020 @ [ 10:00 ] - [ 14:00 ]</t>
-  </si>
-  <si>
-    <t>664</t>
+    <t>05/23/2020 @ [ 07:15 ]</t>
+  </si>
+  <si>
+    <t>723</t>
   </si>
   <si>
     <t>mi</t>
   </si>
   <si>
-    <t>44000</t>
+    <t>41726</t>
   </si>
   <si>
     <t>lbs</t>
   </si>
   <si>
+    <t>05/23/2020 @ [ 04:00 ]</t>
+  </si>
+  <si>
+    <t>41881</t>
+  </si>
+  <si>
+    <t>05/21/2020 @ [ 19:00 ]</t>
+  </si>
+  <si>
+    <t>Clackamas</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>05/23/2020 @ [ 01:00 ]</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>32200</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 02:00 ]</t>
+  </si>
+  <si>
+    <t>Puyallup</t>
+  </si>
+  <si>
+    <t>05/25/2020 @ [ 01:00 ]</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>34305</t>
+  </si>
+  <si>
+    <t>Stockton</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 12:00 ]</t>
+  </si>
+  <si>
+    <t>Hermiston</t>
+  </si>
+  <si>
+    <t>05/24/2020 @ [ 05:30 ]</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>40281.55</t>
+  </si>
+  <si>
+    <t>Lathrop</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 13:00 ]</t>
+  </si>
+  <si>
+    <t>05/23/2020 @ [ 22:00 ]</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>39934</t>
+  </si>
+  <si>
+    <t>Watsonville</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 14:00 ]</t>
+  </si>
+  <si>
+    <t>05/24/2020 @ [ 22:00 ]</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>30117</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 17:00 ]</t>
+  </si>
+  <si>
+    <t>05/24/2020 @ [ 11:00 ]</t>
+  </si>
+  <si>
+    <t>41046.88</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 18:00 ]</t>
+  </si>
+  <si>
+    <t>05/24/2020 @ [ 09:30 ]</t>
+  </si>
+  <si>
+    <t>41613</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>05/22/2020 @ [ 20:00 ]</t>
+  </si>
+  <si>
+    <t>Centralia</t>
+  </si>
+  <si>
+    <t>05/26/2020 @ [ 10:00 ]</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>05/26/2020 @ [ 04:00 ]</t>
+  </si>
+  <si>
+    <t>Wilsonville</t>
+  </si>
+  <si>
+    <t>05/27/2020 @ [ 07:30 ]</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>24228</t>
+  </si>
+  <si>
+    <t>Crockett</t>
+  </si>
+  <si>
+    <t>05/26/2020 @ [ 15:00 ]</t>
+  </si>
+  <si>
+    <t>Lynnwood</t>
+  </si>
+  <si>
+    <t>05/28/2020 @ [ 04:00 ]</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>41211</t>
+  </si>
+  <si>
+    <t>05/26/2020 @ [ 16:00 ]</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>05/27/2020 @ [ 10:00 ]</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>41580</t>
+  </si>
+  <si>
+    <t>05/28/2020 @ [ 11:00 ]</t>
+  </si>
+  <si>
+    <t>39454.10</t>
+  </si>
+  <si>
+    <t>05/26/2020 @ [ 18:00 ]</t>
+  </si>
+  <si>
+    <t>42074</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>05/27/2020 @ [ 07:00 ] - [ 15:30 ]</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>05/29/2020 @ [ 08:00 ] - [ 16:00 ]</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
     <t>V,R</t>
   </si>
   <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>05/07/2020 @ [ 14:30 ]</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>05/08/2020 @ [ 08:00 ]</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>45499</t>
-  </si>
-  <si>
-    <t>Taft</t>
-  </si>
-  <si>
-    <t>05/08/2020 @ [ 15:00 ]</t>
-  </si>
-  <si>
-    <t>Spokane</t>
-  </si>
-  <si>
-    <t>05/11/2020 @ [ 20:30 ]</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>40014</t>
-  </si>
-  <si>
-    <t>05/09/2020 @ [ 23:30 ]</t>
-  </si>
-  <si>
-    <t>Moses Lake</t>
-  </si>
-  <si>
-    <t>05/11/2020 @ [ 07:00 ]</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>Sparks</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>05/11/2020 @ [ 07:30 ] - [ 15:00 ]</t>
-  </si>
-  <si>
-    <t>Chehalis</t>
-  </si>
-  <si>
-    <t>05/12/2020 @ [ 22:30 ]</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>05/13/2020 @ [ 10:30 ]</t>
-  </si>
-  <si>
-    <t>25555</t>
-  </si>
-  <si>
-    <t>05/12/2020 @ [ 17:00 ]</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>05/13/2020 @ [ 07:30 ]</t>
-  </si>
-  <si>
-    <t>34000</t>
-  </si>
-  <si>
-    <t>05/12/2020 @ [ 11:00 ]</t>
-  </si>
-  <si>
-    <t>05/14/2020 @ [ 19:00 ]</t>
-  </si>
-  <si>
-    <t>40476</t>
-  </si>
-  <si>
-    <t>Tulare</t>
-  </si>
-  <si>
-    <t>05/13/2020 @ [ 14:00 ]</t>
-  </si>
-  <si>
-    <t>Sumner</t>
-  </si>
-  <si>
-    <t>05/15/2020 @ [ 08:30 ]</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>5376</t>
+    <t>05/27/2020 @ [ 13:30 ]</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>05/29/2020 @ [ 09:00 ]</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>43113</t>
+  </si>
+  <si>
+    <t>05/27/2020 @ [ 19:00 ]</t>
+  </si>
+  <si>
+    <t>05/29/2020 @ [ 10:00 ]</t>
+  </si>
+  <si>
+    <t>05/27/2020 @ [ 20:00 ]</t>
+  </si>
+  <si>
+    <t>05/29/2020 @ [ 07:00 ]</t>
   </si>
 </sst>
 </file>
@@ -264,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,7 +433,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>19450944</v>
+        <v>19544878</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>16</v>
@@ -372,49 +483,49 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>19465396</v>
+        <v>19550633</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="L3" s="0">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="0">
-        <v>2</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>28</v>
@@ -422,16 +533,16 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>19443929</v>
+        <v>19555475</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>19</v>
@@ -440,31 +551,31 @@
         <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>28</v>
@@ -472,16 +583,16 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>19438913</v>
+        <v>19558887</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>19</v>
@@ -490,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>23</v>
@@ -502,19 +613,19 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L5" s="0">
         <v>2</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>28</v>
@@ -522,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>19460751</v>
+        <v>19541266</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -531,40 +642,40 @@
         <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="0">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="0">
-        <v>2</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>28</v>
@@ -572,7 +683,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>19460752</v>
+        <v>19557472</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
@@ -581,10 +692,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>20</v>
@@ -593,28 +704,28 @@
         <v>49</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" s="0">
         <v>2</v>
       </c>
       <c r="M7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>28</v>
@@ -622,7 +733,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>19460755</v>
+        <v>19516402</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>16</v>
@@ -631,19 +742,19 @@
         <v>17</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>23</v>
@@ -652,13 +763,13 @@
         <v>20</v>
       </c>
       <c r="K8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="0">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="L8" s="0">
-        <v>2</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>26</v>
@@ -672,7 +783,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>19460758</v>
+        <v>19541261</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>16</v>
@@ -681,40 +792,40 @@
         <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="0">
         <v>2</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>28</v>
@@ -722,16 +833,16 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>19432127</v>
+        <v>19550631</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>19</v>
@@ -740,10 +851,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>23</v>
@@ -752,19 +863,19 @@
         <v>20</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>28</v>
@@ -772,7 +883,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>19460039</v>
+        <v>19516480</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>16</v>
@@ -781,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>19</v>
@@ -790,10 +901,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>23</v>
@@ -802,21 +913,471 @@
         <v>20</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="0">
         <v>2</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>19550375</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="0">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>19542256</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="0">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>19550916</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="0">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>19560983</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="0">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>19555480</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="0">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>19483392</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="0">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>19503355</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="0">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>19503354</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="0">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19503356</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="0">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="0" t="s">
         <v>28</v>
       </c>
     </row>
